--- a/output_tables/SR2_results_M_reca_calibrated_421S.xlsx
+++ b/output_tables/SR2_results_M_reca_calibrated_421S.xlsx
@@ -510,7 +510,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.171</v>
+        <v>0.151</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -518,7 +518,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>0.245</v>
+        <v>0.217</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -526,7 +526,7 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0.3825</v>
+        <v>0.3955</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>

--- a/output_tables/SR2_results_M_reca_calibrated_421S.xlsx
+++ b/output_tables/SR2_results_M_reca_calibrated_421S.xlsx
@@ -441,52 +441,52 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Best Feature LT</t>
+          <t>BestFeatureLT</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>R2 LT</t>
+          <t>LT</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Best Feature LS</t>
+          <t>BestFeatureLS</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>R2 LS</t>
+          <t>LS</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Best Feature LS2</t>
+          <t>BestFeatureLS2</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>R2 LS2</t>
+          <t>LS2</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Best Feature 10</t>
+          <t>BestFeature10</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>R2 10</t>
+          <t>Top_layer</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Best Feature 50</t>
+          <t>BestFeature50</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>R2 50</t>
+          <t>Bottom_layer</t>
         </is>
       </c>
     </row>
@@ -498,7 +498,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>HCP1.0</t>
+          <t>HCP1QP</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -506,31 +506,31 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>HCP4QP</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>0.1465</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>bulk_ec_inv</t>
         </is>
       </c>
-      <c r="E2" t="n">
-        <v>0.151</v>
-      </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="n">
+        <v>0.186</v>
+      </c>
+      <c r="H2" t="inlineStr">
         <is>
           <t>bulk_ec_inv</t>
         </is>
       </c>
-      <c r="G2" t="n">
-        <v>0.217</v>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>bulk_ec_inv</t>
-        </is>
-      </c>
       <c r="I2" t="n">
-        <v>0.3955</v>
+        <v>0.3055</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>HCP4.0</t>
+          <t>HCP4QP</t>
         </is>
       </c>
       <c r="K2" t="n">
@@ -545,7 +545,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>HCP1.0</t>
+          <t>HCP1QP</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -553,7 +553,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>HCP4.0</t>
+          <t>HCP4QP</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -561,7 +561,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>HCP4.0</t>
+          <t>HCP4QP</t>
         </is>
       </c>
       <c r="G3" t="n">
@@ -569,7 +569,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>HCP4.0</t>
+          <t>HCP4QP</t>
         </is>
       </c>
       <c r="I3" t="n">
@@ -577,7 +577,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>HCP4.0</t>
+          <t>HCP4QP</t>
         </is>
       </c>
       <c r="K3" t="n">
@@ -592,7 +592,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>HCP1.0</t>
+          <t>HCP1QP</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -600,7 +600,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>HCP1.0</t>
+          <t>HCP1QP</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -608,7 +608,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>HCP1.0</t>
+          <t>HCP1QP</t>
         </is>
       </c>
       <c r="G4" t="n">
@@ -616,7 +616,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>HCP1.0</t>
+          <t>HCP1QP</t>
         </is>
       </c>
       <c r="I4" t="n">
@@ -624,7 +624,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>HCP1.0</t>
+          <t>HCP1QP</t>
         </is>
       </c>
       <c r="K4" t="n">
@@ -639,7 +639,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>HCP1.0</t>
+          <t>HCP1QP</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -647,7 +647,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>PRP2.1</t>
+          <t>PRP2QP</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -655,7 +655,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>PRP2.1</t>
+          <t>PRP2QP</t>
         </is>
       </c>
       <c r="G5" t="n">
@@ -663,7 +663,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>PRP1.1</t>
+          <t>PRP1QP</t>
         </is>
       </c>
       <c r="I5" t="n">
@@ -671,7 +671,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>PRP2.1</t>
+          <t>PRP2QP</t>
         </is>
       </c>
       <c r="K5" t="n">
@@ -686,7 +686,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>HCP1.0</t>
+          <t>HCP1QP</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -694,7 +694,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>HCP4.0</t>
+          <t>HCP4QP</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -702,7 +702,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>HCP4.0</t>
+          <t>HCP4QP</t>
         </is>
       </c>
       <c r="G6" t="n">
@@ -710,7 +710,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>HCP4.0</t>
+          <t>HCP4QP</t>
         </is>
       </c>
       <c r="I6" t="n">
@@ -718,7 +718,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>HCP4.0</t>
+          <t>HCP4QP</t>
         </is>
       </c>
       <c r="K6" t="n">

--- a/output_tables/SR2_results_M_reca_calibrated_421S.xlsx
+++ b/output_tables/SR2_results_M_reca_calibrated_421S.xlsx
@@ -506,35 +506,35 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>bulk_ec_inv</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>0.146</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>bulk_ec_inv</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>0.1985</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>bulk_ec_inv</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>0.3245</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>HCP4QP</t>
         </is>
       </c>
-      <c r="E2" t="n">
-        <v>0.1465</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>bulk_ec_inv</t>
-        </is>
-      </c>
-      <c r="G2" t="n">
-        <v>0.186</v>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>bulk_ec_inv</t>
-        </is>
-      </c>
-      <c r="I2" t="n">
-        <v>0.3055</v>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>HCP4QP</t>
-        </is>
-      </c>
       <c r="K2" t="n">
-        <v>0.015</v>
+        <v>0.0045</v>
       </c>
     </row>
     <row r="3">
@@ -557,7 +557,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.1355</v>
+        <v>0.139</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -565,7 +565,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>0.1355</v>
+        <v>0.139</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -573,7 +573,7 @@
         </is>
       </c>
       <c r="I3" t="n">
-        <v>0.0365</v>
+        <v>0.0335</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -581,7 +581,7 @@
         </is>
       </c>
       <c r="K3" t="n">
-        <v>-0.1375</v>
+        <v>-0.13</v>
       </c>
     </row>
     <row r="4">
@@ -651,7 +651,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.0565</v>
+        <v>0.0675</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -659,23 +659,23 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>0.0515</v>
+        <v>0.078</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>PRP1QP</t>
+          <t>bulk_ec_inv</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>0.3335</v>
+        <v>0.4105</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>PRP2QP</t>
+          <t>PRP4QP</t>
         </is>
       </c>
       <c r="K5" t="n">
-        <v>-0.043</v>
+        <v>0.0235</v>
       </c>
     </row>
     <row r="6">
@@ -698,7 +698,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.4115</v>
+        <v>0.414</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>0.4115</v>
+        <v>0.414</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -714,15 +714,15 @@
         </is>
       </c>
       <c r="I6" t="n">
-        <v>0.272</v>
+        <v>0.275</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>HCP4QP</t>
+          <t>HCP2QP</t>
         </is>
       </c>
       <c r="K6" t="n">
-        <v>-0.146</v>
+        <v>-0.1215</v>
       </c>
     </row>
   </sheetData>
